--- a/biology/Zoologie/Eurydema_ventralis/Eurydema_ventralis.xlsx
+++ b/biology/Zoologie/Eurydema_ventralis/Eurydema_ventralis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Punaise du chou
-Eurydema ventralis, la Punaise du chou, est une espèce d'insectes hémiptères hétéroptères de la famille des Pentatomidae[1].
+Eurydema ventralis, la Punaise du chou, est une espèce d'insectes hémiptères hétéroptères de la famille des Pentatomidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette punaise possède des antennes à cinq articles, comme tous les insectes de la famille des Pentatomidae (penta = 5). Son scutellum recouvre la moitié antérieure des ailes qui sont donc en partie visibles. Il existe une autre espèce très proche, Eurydema ornata, avec laquelle elle peut être confondue.
 </t>
@@ -543,18 +557,20 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Eurydema ventralis Kolenati (d), 1846[2].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Punaise du chou[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Eurydema ventralis Kolenati (d), 1846.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Punaise du chou.
 Eurydema ventralis a pour synonymes :
-Eurydema ornata var. dissimilis (Fieber, 1861)[4]
-Eurydema ornatum var. pectoralis (Fieber, 1861)[4]
-Eurydema ornatum var. ventralis Kolenati, 1846[4]
-Eurydema ventrale Kolenati, 1846[5]
-Rubrodorsalium ventralis Kolenati, 1846[5]
-Strachia ornata var. dissimilis Fieber, 1861[4]
-Strachia ornata var. pectoralis Fieber, 1861[4]</t>
+Eurydema ornata var. dissimilis (Fieber, 1861)
+Eurydema ornatum var. pectoralis (Fieber, 1861)
+Eurydema ornatum var. ventralis Kolenati, 1846
+Eurydema ventrale Kolenati, 1846
+Rubrodorsalium ventralis Kolenati, 1846
+Strachia ornata var. dissimilis Fieber, 1861
+Strachia ornata var. pectoralis Fieber, 1861</t>
         </is>
       </c>
     </row>
